--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-F2rl3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/F2-F2rl3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F2rl3</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F2rl3</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H2">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I2">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J2">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.750552000000001</v>
+        <v>4.154674</v>
       </c>
       <c r="N2">
-        <v>17.501104</v>
+        <v>8.309348</v>
       </c>
       <c r="O2">
-        <v>0.5609966218914535</v>
+        <v>0.6640108057126139</v>
       </c>
       <c r="P2">
-        <v>0.4734644514473085</v>
+        <v>0.6110959162719666</v>
       </c>
       <c r="Q2">
-        <v>16.750188505948</v>
+        <v>2.60703716163</v>
       </c>
       <c r="R2">
-        <v>67.00075402379201</v>
+        <v>10.42814864652</v>
       </c>
       <c r="S2">
-        <v>0.2976024902753797</v>
+        <v>0.2802942712437302</v>
       </c>
       <c r="T2">
-        <v>0.2115923078184608</v>
+        <v>0.2160998864051973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H3">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I3">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J3">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>0.9732149999999999</v>
       </c>
       <c r="O3">
-        <v>0.0207975575854754</v>
+        <v>0.05184725093405657</v>
       </c>
       <c r="P3">
-        <v>0.02632877937959184</v>
+        <v>0.07157333068185637</v>
       </c>
       <c r="Q3">
-        <v>0.6209716715325</v>
+        <v>0.203562515475</v>
       </c>
       <c r="R3">
-        <v>3.725830029195</v>
+        <v>1.22137509285</v>
       </c>
       <c r="S3">
-        <v>0.01103287379559421</v>
+        <v>0.0218859200656471</v>
       </c>
       <c r="T3">
-        <v>0.01176638958625372</v>
+        <v>0.02531024707929359</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H4">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I4">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J4">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3575543333333333</v>
+        <v>0.2500346666666666</v>
       </c>
       <c r="N4">
-        <v>1.072663</v>
+        <v>0.7501039999999999</v>
       </c>
       <c r="O4">
-        <v>0.02292275654640424</v>
+        <v>0.03996119081049877</v>
       </c>
       <c r="P4">
-        <v>0.02901918638291757</v>
+        <v>0.05516503715806188</v>
       </c>
       <c r="Q4">
-        <v>0.6844256778831667</v>
+        <v>0.15689550316</v>
       </c>
       <c r="R4">
-        <v>4.106554067298999</v>
+        <v>0.9413730189599999</v>
       </c>
       <c r="S4">
-        <v>0.01216026829036079</v>
+        <v>0.0168685400296154</v>
       </c>
       <c r="T4">
-        <v>0.01296873841110101</v>
+        <v>0.01950783493387015</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H5">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I5">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J5">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.0802015</v>
+        <v>1.018685</v>
       </c>
       <c r="N5">
-        <v>2.160403</v>
+        <v>2.03737</v>
       </c>
       <c r="O5">
-        <v>0.06925156178285448</v>
+        <v>0.1628088864775802</v>
       </c>
       <c r="P5">
-        <v>0.0584462569504255</v>
+        <v>0.1498346785975285</v>
       </c>
       <c r="Q5">
-        <v>2.06770712857975</v>
+        <v>0.639219744075</v>
       </c>
       <c r="R5">
-        <v>8.270828514319</v>
+        <v>2.5568789763</v>
       </c>
       <c r="S5">
-        <v>0.03673718599686061</v>
+        <v>0.06872538488023834</v>
       </c>
       <c r="T5">
-        <v>0.02611976116409149</v>
+        <v>0.05298555621516355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H6">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I6">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J6">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.651555333333333</v>
+        <v>0.296504</v>
       </c>
       <c r="N6">
-        <v>13.954666</v>
+        <v>0.889512</v>
       </c>
       <c r="O6">
-        <v>0.2982105390084161</v>
+        <v>0.04738804053868315</v>
       </c>
       <c r="P6">
-        <v>0.3775212285362344</v>
+        <v>0.0654175454770831</v>
       </c>
       <c r="Q6">
-        <v>8.903944423069667</v>
+        <v>0.18605477748</v>
       </c>
       <c r="R6">
-        <v>53.423666538418</v>
+        <v>1.11632866488</v>
       </c>
       <c r="S6">
-        <v>0.1581973858167718</v>
+        <v>0.0200035845413746</v>
       </c>
       <c r="T6">
-        <v>0.1687150698479256</v>
+        <v>0.02313339652594402</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.9141865</v>
+        <v>0.627495</v>
       </c>
       <c r="H7">
-        <v>3.828373</v>
+        <v>1.25499</v>
       </c>
       <c r="I7">
-        <v>0.5304889167995069</v>
+        <v>0.4221230570832646</v>
       </c>
       <c r="J7">
-        <v>0.4469022060086147</v>
+        <v>0.3536267886120559</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4339576666666667</v>
+        <v>0.2126346666666667</v>
       </c>
       <c r="N7">
-        <v>1.301873</v>
+        <v>0.637904</v>
       </c>
       <c r="O7">
-        <v>0.02782096318539646</v>
+        <v>0.03398382552656753</v>
       </c>
       <c r="P7">
-        <v>0.03522009730352221</v>
+        <v>0.04691349181350361</v>
       </c>
       <c r="Q7">
-        <v>0.8306759071048334</v>
+        <v>0.13342719016</v>
       </c>
       <c r="R7">
-        <v>4.984055442629001</v>
+        <v>0.80056314096</v>
       </c>
       <c r="S7">
-        <v>0.01475871262453993</v>
+        <v>0.01434535632265897</v>
       </c>
       <c r="T7">
-        <v>0.01573993918078214</v>
+        <v>0.01658986745258725</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>1.574238</v>
       </c>
       <c r="I8">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J8">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.750552000000001</v>
+        <v>4.154674</v>
       </c>
       <c r="N8">
-        <v>17.501104</v>
+        <v>8.309348</v>
       </c>
       <c r="O8">
-        <v>0.5609966218914535</v>
+        <v>0.6640108057126139</v>
       </c>
       <c r="P8">
-        <v>0.4734644514473085</v>
+        <v>0.6110959162719666</v>
       </c>
       <c r="Q8">
-        <v>4.591817159792001</v>
+        <v>2.180148562804</v>
       </c>
       <c r="R8">
-        <v>27.550902958752</v>
+        <v>13.080891376824</v>
       </c>
       <c r="S8">
-        <v>0.08158333389251486</v>
+        <v>0.2343975611886349</v>
       </c>
       <c r="T8">
-        <v>0.08700736617762118</v>
+        <v>0.2710720029440434</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>1.574238</v>
       </c>
       <c r="I9">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J9">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>0.9732149999999999</v>
       </c>
       <c r="O9">
-        <v>0.0207975575854754</v>
+        <v>0.05184725093405657</v>
       </c>
       <c r="P9">
-        <v>0.02632877937959184</v>
+        <v>0.07157333068185637</v>
       </c>
       <c r="Q9">
         <v>0.17023022613</v>
@@ -1013,10 +1013,10 @@
         <v>1.53207203517</v>
       </c>
       <c r="S9">
-        <v>0.003024499646582442</v>
+        <v>0.01830221597107237</v>
       </c>
       <c r="T9">
-        <v>0.004838373274883321</v>
+        <v>0.03174874121834675</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>1.574238</v>
       </c>
       <c r="I10">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J10">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3575543333333333</v>
+        <v>0.2500346666666666</v>
       </c>
       <c r="N10">
-        <v>1.072663</v>
+        <v>0.7501039999999999</v>
       </c>
       <c r="O10">
-        <v>0.02292275654640424</v>
+        <v>0.03996119081049877</v>
       </c>
       <c r="P10">
-        <v>0.02901918638291757</v>
+        <v>0.05516503715806188</v>
       </c>
       <c r="Q10">
-        <v>0.1876252061993333</v>
+        <v>0.1312046911946667</v>
       </c>
       <c r="R10">
-        <v>1.688626855794</v>
+        <v>1.180842220752</v>
       </c>
       <c r="S10">
-        <v>0.003333558221361222</v>
+        <v>0.0141064054795346</v>
       </c>
       <c r="T10">
-        <v>0.005332782573384266</v>
+        <v>0.02447029462436026</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.574238</v>
       </c>
       <c r="I11">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J11">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.0802015</v>
+        <v>1.018685</v>
       </c>
       <c r="N11">
-        <v>2.160403</v>
+        <v>2.03737</v>
       </c>
       <c r="O11">
-        <v>0.06925156178285448</v>
+        <v>0.1628088864775802</v>
       </c>
       <c r="P11">
-        <v>0.0584462569504255</v>
+        <v>0.1498346785975285</v>
       </c>
       <c r="Q11">
-        <v>0.566831416319</v>
+        <v>0.5345508790100001</v>
       </c>
       <c r="R11">
-        <v>3.400988497914</v>
+        <v>3.20730527406</v>
       </c>
       <c r="S11">
-        <v>0.0100709577688008</v>
+        <v>0.05747196521783529</v>
       </c>
       <c r="T11">
-        <v>0.01074052099297458</v>
+        <v>0.06646417584605985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.574238</v>
       </c>
       <c r="I12">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J12">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.651555333333333</v>
+        <v>0.296504</v>
       </c>
       <c r="N12">
-        <v>13.954666</v>
+        <v>0.889512</v>
       </c>
       <c r="O12">
-        <v>0.2982105390084161</v>
+        <v>0.04738804053868315</v>
       </c>
       <c r="P12">
-        <v>0.3775212285362344</v>
+        <v>0.0654175454770831</v>
       </c>
       <c r="Q12">
-        <v>2.440885054945334</v>
+        <v>0.155589287984</v>
       </c>
       <c r="R12">
-        <v>21.967965494508</v>
+        <v>1.400303591856</v>
       </c>
       <c r="S12">
-        <v>0.04336748034625033</v>
+        <v>0.01672810297093707</v>
       </c>
       <c r="T12">
-        <v>0.06937612247481074</v>
+        <v>0.02901813710086061</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>1.574238</v>
       </c>
       <c r="I13">
-        <v>0.145425713291194</v>
+        <v>0.3530026306380366</v>
       </c>
       <c r="J13">
-        <v>0.1837674738022104</v>
+        <v>0.4435833978366884</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4339576666666667</v>
+        <v>0.2126346666666667</v>
       </c>
       <c r="N13">
-        <v>1.301873</v>
+        <v>0.637904</v>
       </c>
       <c r="O13">
-        <v>0.02782096318539646</v>
+        <v>0.03398382552656753</v>
       </c>
       <c r="P13">
-        <v>0.03522009730352221</v>
+        <v>0.04691349181350361</v>
       </c>
       <c r="Q13">
-        <v>0.2277175497526667</v>
+        <v>0.1115791907946667</v>
       </c>
       <c r="R13">
-        <v>2.049457947774</v>
+        <v>1.004212717152</v>
       </c>
       <c r="S13">
-        <v>0.004045883415684328</v>
+        <v>0.0119963798100224</v>
       </c>
       <c r="T13">
-        <v>0.006472308308536319</v>
+        <v>0.0208100461030176</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,19 +1284,19 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H14">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I14">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J14">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.750552000000001</v>
+        <v>4.154674</v>
       </c>
       <c r="N14">
-        <v>17.501104</v>
+        <v>8.309348</v>
       </c>
       <c r="O14">
-        <v>0.5609966218914535</v>
+        <v>0.6640108057126139</v>
       </c>
       <c r="P14">
-        <v>0.4734644514473085</v>
+        <v>0.6110959162719666</v>
       </c>
       <c r="Q14">
-        <v>1.080217725341333</v>
+        <v>1.176431257829</v>
       </c>
       <c r="R14">
-        <v>6.481306352048001</v>
+        <v>4.705725031316</v>
       </c>
       <c r="S14">
-        <v>0.01919235028232852</v>
+        <v>0.1264834068860593</v>
       </c>
       <c r="T14">
-        <v>0.02046834529983503</v>
+        <v>0.09751554942217239</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,19 +1346,19 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H15">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I15">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J15">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>0.9732149999999999</v>
       </c>
       <c r="O15">
-        <v>0.0207975575854754</v>
+        <v>0.05184725093405657</v>
       </c>
       <c r="P15">
-        <v>0.02632877937959184</v>
+        <v>0.07157333068185637</v>
       </c>
       <c r="Q15">
-        <v>0.040046391495</v>
+        <v>0.09185803319249999</v>
       </c>
       <c r="R15">
-        <v>0.360417523455</v>
+        <v>0.5511481991549999</v>
       </c>
       <c r="S15">
-        <v>0.000711508758914727</v>
+        <v>0.009876069605189738</v>
       </c>
       <c r="T15">
-        <v>0.001138219661512722</v>
+        <v>0.01142130470777003</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H16">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I16">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J16">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3575543333333333</v>
+        <v>0.2500346666666666</v>
       </c>
       <c r="N16">
-        <v>1.072663</v>
+        <v>0.7501039999999999</v>
       </c>
       <c r="O16">
-        <v>0.02292275654640424</v>
+        <v>0.03996119081049877</v>
       </c>
       <c r="P16">
-        <v>0.02901918638291757</v>
+        <v>0.05516503715806188</v>
       </c>
       <c r="Q16">
-        <v>0.04413853304788889</v>
+        <v>0.07079944116133331</v>
       </c>
       <c r="R16">
-        <v>0.397246797431</v>
+        <v>0.4247966469679999</v>
       </c>
       <c r="S16">
-        <v>0.0007842142998861996</v>
+        <v>0.007611965819609481</v>
       </c>
       <c r="T16">
-        <v>0.001254528667126196</v>
+        <v>0.008802953454804058</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H17">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I17">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J17">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.0802015</v>
+        <v>1.018685</v>
       </c>
       <c r="N17">
-        <v>2.160403</v>
+        <v>2.03737</v>
       </c>
       <c r="O17">
-        <v>0.06925156178285448</v>
+        <v>0.1628088864775802</v>
       </c>
       <c r="P17">
-        <v>0.0584462569504255</v>
+        <v>0.1498346785975285</v>
       </c>
       <c r="Q17">
-        <v>0.1333461943018333</v>
+        <v>0.2884493165725</v>
       </c>
       <c r="R17">
-        <v>0.8000771658110001</v>
+        <v>1.15379726629</v>
       </c>
       <c r="S17">
-        <v>0.002369176888897602</v>
+        <v>0.03101248120640159</v>
       </c>
       <c r="T17">
-        <v>0.002526690578537188</v>
+        <v>0.02390984887457492</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H18">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I18">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J18">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.651555333333333</v>
+        <v>0.296504</v>
       </c>
       <c r="N18">
-        <v>13.954666</v>
+        <v>0.889512</v>
       </c>
       <c r="O18">
-        <v>0.2982105390084161</v>
+        <v>0.04738804053868315</v>
       </c>
       <c r="P18">
-        <v>0.3775212285362344</v>
+        <v>0.0654175454770831</v>
       </c>
       <c r="Q18">
-        <v>0.5742143491602223</v>
+        <v>0.08395762788399999</v>
       </c>
       <c r="R18">
-        <v>5.167929142442</v>
+        <v>0.5037457673039999</v>
       </c>
       <c r="S18">
-        <v>0.01020213117012123</v>
+        <v>0.0090266615564408</v>
       </c>
       <c r="T18">
-        <v>0.01632062310079796</v>
+        <v>0.01043899610385982</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1234456666666667</v>
+        <v>0.2831585</v>
       </c>
       <c r="H19">
-        <v>0.370337</v>
+        <v>0.566317</v>
       </c>
       <c r="I19">
-        <v>0.03421116907552791</v>
+        <v>0.1904839586914821</v>
       </c>
       <c r="J19">
-        <v>0.04323100760208379</v>
+        <v>0.1595748667689891</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4339576666666667</v>
+        <v>0.2126346666666667</v>
       </c>
       <c r="N19">
-        <v>1.301873</v>
+        <v>0.637904</v>
       </c>
       <c r="O19">
-        <v>0.02782096318539646</v>
+        <v>0.03398382552656753</v>
       </c>
       <c r="P19">
-        <v>0.03522009730352221</v>
+        <v>0.04691349181350361</v>
       </c>
       <c r="Q19">
-        <v>0.05357019346677779</v>
+        <v>0.06020931326133333</v>
       </c>
       <c r="R19">
-        <v>0.4821317412010001</v>
+        <v>0.361255879568</v>
       </c>
       <c r="S19">
-        <v>0.000951787675379636</v>
+        <v>0.006473373617781224</v>
       </c>
       <c r="T19">
-        <v>0.0015226002942747</v>
+        <v>0.007486214205807899</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H20">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I20">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J20">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.750552000000001</v>
+        <v>4.154674</v>
       </c>
       <c r="N20">
-        <v>17.501104</v>
+        <v>8.309348</v>
       </c>
       <c r="O20">
-        <v>0.5609966218914535</v>
+        <v>0.6640108057126139</v>
       </c>
       <c r="P20">
-        <v>0.4734644514473085</v>
+        <v>0.6110959162719666</v>
       </c>
       <c r="Q20">
-        <v>3.013501971932</v>
+        <v>0.212395244228</v>
       </c>
       <c r="R20">
-        <v>12.054007887728</v>
+        <v>1.274371465368</v>
       </c>
       <c r="S20">
-        <v>0.0535412297585945</v>
+        <v>0.02283556639418956</v>
       </c>
       <c r="T20">
-        <v>0.03806726334035886</v>
+        <v>0.02640847750055339</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H21">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I21">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J21">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>0.9732149999999999</v>
       </c>
       <c r="O21">
-        <v>0.0207975575854754</v>
+        <v>0.05184725093405657</v>
       </c>
       <c r="P21">
-        <v>0.02632877937959184</v>
+        <v>0.07157333068185637</v>
       </c>
       <c r="Q21">
-        <v>0.1117181072925</v>
+        <v>0.01658423241</v>
       </c>
       <c r="R21">
-        <v>0.670308643755</v>
+        <v>0.14925809169</v>
       </c>
       <c r="S21">
-        <v>0.001984908225199604</v>
+        <v>0.001783045292147366</v>
       </c>
       <c r="T21">
-        <v>0.002116873980737863</v>
+        <v>0.003093037676445981</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H22">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I22">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J22">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3575543333333333</v>
+        <v>0.2500346666666666</v>
       </c>
       <c r="N22">
-        <v>1.072663</v>
+        <v>0.7501039999999999</v>
       </c>
       <c r="O22">
-        <v>0.02292275654640424</v>
+        <v>0.03996119081049877</v>
       </c>
       <c r="P22">
-        <v>0.02901918638291757</v>
+        <v>0.05516503715806188</v>
       </c>
       <c r="Q22">
-        <v>0.1231340249818333</v>
+        <v>0.01278227222933333</v>
       </c>
       <c r="R22">
-        <v>0.738804149891</v>
+        <v>0.115040450064</v>
       </c>
       <c r="S22">
-        <v>0.002187736123638952</v>
+        <v>0.001374279481739294</v>
       </c>
       <c r="T22">
-        <v>0.002333186803327341</v>
+        <v>0.002383954145027395</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H23">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I23">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J23">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.0802015</v>
+        <v>1.018685</v>
       </c>
       <c r="N23">
-        <v>2.160403</v>
+        <v>2.03737</v>
       </c>
       <c r="O23">
-        <v>0.06925156178285448</v>
+        <v>0.1628088864775802</v>
       </c>
       <c r="P23">
-        <v>0.0584462569504255</v>
+        <v>0.1498346785975285</v>
       </c>
       <c r="Q23">
-        <v>0.3719981722677501</v>
+        <v>0.05207721457</v>
       </c>
       <c r="R23">
-        <v>1.487992689071</v>
+        <v>0.31246328742</v>
       </c>
       <c r="S23">
-        <v>0.006609333525139718</v>
+        <v>0.005599055173105036</v>
       </c>
       <c r="T23">
-        <v>0.004699168116611459</v>
+        <v>0.006475097661730192</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H24">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I24">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J24">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.651555333333333</v>
+        <v>0.296504</v>
       </c>
       <c r="N24">
-        <v>13.954666</v>
+        <v>0.889512</v>
       </c>
       <c r="O24">
-        <v>0.2982105390084161</v>
+        <v>0.04738804053868315</v>
       </c>
       <c r="P24">
-        <v>0.3775212285362344</v>
+        <v>0.0654175454770831</v>
       </c>
       <c r="Q24">
-        <v>1.601895648360333</v>
+        <v>0.015157877488</v>
       </c>
       <c r="R24">
-        <v>9.611373890162001</v>
+        <v>0.136420897392</v>
       </c>
       <c r="S24">
-        <v>0.02846106083785521</v>
+        <v>0.00162969146993068</v>
       </c>
       <c r="T24">
-        <v>0.03035328202430842</v>
+        <v>0.002827015746418641</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.3443785</v>
+        <v>0.051122</v>
       </c>
       <c r="H25">
-        <v>0.6887570000000001</v>
+        <v>0.153366</v>
       </c>
       <c r="I25">
-        <v>0.09543948692253289</v>
+        <v>0.03439035358721687</v>
       </c>
       <c r="J25">
-        <v>0.08040152375535912</v>
+        <v>0.04321494678226644</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,772 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4339576666666667</v>
+        <v>0.2126346666666667</v>
       </c>
       <c r="N25">
-        <v>1.301873</v>
+        <v>0.637904</v>
       </c>
       <c r="O25">
-        <v>0.02782096318539646</v>
+        <v>0.03398382552656753</v>
       </c>
       <c r="P25">
-        <v>0.03522009730352221</v>
+        <v>0.04691349181350361</v>
       </c>
       <c r="Q25">
-        <v>0.1494456903101667</v>
+        <v>0.01087030942933333</v>
       </c>
       <c r="R25">
-        <v>0.8966741418610001</v>
+        <v>0.097832784864</v>
       </c>
       <c r="S25">
-        <v>0.002655218452104915</v>
+        <v>0.001168715776104944</v>
       </c>
       <c r="T25">
-        <v>0.002831749490015201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>0.547919</v>
-      </c>
-      <c r="H26">
-        <v>1.643757</v>
-      </c>
-      <c r="I26">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J26">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>8.750552000000001</v>
-      </c>
-      <c r="N26">
-        <v>17.501104</v>
-      </c>
-      <c r="O26">
-        <v>0.5609966218914535</v>
-      </c>
-      <c r="P26">
-        <v>0.4734644514473085</v>
-      </c>
-      <c r="Q26">
-        <v>4.794593701288001</v>
-      </c>
-      <c r="R26">
-        <v>28.76756220772801</v>
-      </c>
-      <c r="S26">
-        <v>0.08518608759867223</v>
-      </c>
-      <c r="T26">
-        <v>0.09084964738878623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.547919</v>
-      </c>
-      <c r="H27">
-        <v>1.643757</v>
-      </c>
-      <c r="I27">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J27">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0.324405</v>
-      </c>
-      <c r="N27">
-        <v>0.9732149999999999</v>
-      </c>
-      <c r="O27">
-        <v>0.0207975575854754</v>
-      </c>
-      <c r="P27">
-        <v>0.02632877937959184</v>
-      </c>
-      <c r="Q27">
-        <v>0.177747663195</v>
-      </c>
-      <c r="R27">
-        <v>1.599728968755</v>
-      </c>
-      <c r="S27">
-        <v>0.003158062799632213</v>
-      </c>
-      <c r="T27">
-        <v>0.005052037836211794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.547919</v>
-      </c>
-      <c r="H28">
-        <v>1.643757</v>
-      </c>
-      <c r="I28">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J28">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.3575543333333333</v>
-      </c>
-      <c r="N28">
-        <v>1.072663</v>
-      </c>
-      <c r="O28">
-        <v>0.02292275654640424</v>
-      </c>
-      <c r="P28">
-        <v>0.02901918638291757</v>
-      </c>
-      <c r="Q28">
-        <v>0.1959108127656667</v>
-      </c>
-      <c r="R28">
-        <v>1.763197314891</v>
-      </c>
-      <c r="S28">
-        <v>0.00348076952866724</v>
-      </c>
-      <c r="T28">
-        <v>0.005568280453450113</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.547919</v>
-      </c>
-      <c r="H29">
-        <v>1.643757</v>
-      </c>
-      <c r="I29">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J29">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1.0802015</v>
-      </c>
-      <c r="N29">
-        <v>2.160403</v>
-      </c>
-      <c r="O29">
-        <v>0.06925156178285448</v>
-      </c>
-      <c r="P29">
-        <v>0.0584462569504255</v>
-      </c>
-      <c r="Q29">
-        <v>0.5918629256785001</v>
-      </c>
-      <c r="R29">
-        <v>3.551177554071</v>
-      </c>
-      <c r="S29">
-        <v>0.01051569542163936</v>
-      </c>
-      <c r="T29">
-        <v>0.01121482683422005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.547919</v>
-      </c>
-      <c r="H30">
-        <v>1.643757</v>
-      </c>
-      <c r="I30">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J30">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>4.651555333333333</v>
-      </c>
-      <c r="N30">
-        <v>13.954666</v>
-      </c>
-      <c r="O30">
-        <v>0.2982105390084161</v>
-      </c>
-      <c r="P30">
-        <v>0.3775212285362344</v>
-      </c>
-      <c r="Q30">
-        <v>2.548675546684667</v>
-      </c>
-      <c r="R30">
-        <v>22.938079920162</v>
-      </c>
-      <c r="S30">
-        <v>0.04528260618249046</v>
-      </c>
-      <c r="T30">
-        <v>0.0724398006850473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.547919</v>
-      </c>
-      <c r="H31">
-        <v>1.643757</v>
-      </c>
-      <c r="I31">
-        <v>0.1518477728287547</v>
-      </c>
-      <c r="J31">
-        <v>0.1918827213132321</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.4339576666666667</v>
-      </c>
-      <c r="N31">
-        <v>1.301873</v>
-      </c>
-      <c r="O31">
-        <v>0.02782096318539646</v>
-      </c>
-      <c r="P31">
-        <v>0.03522009730352221</v>
-      </c>
-      <c r="Q31">
-        <v>0.2377736507623334</v>
-      </c>
-      <c r="R31">
-        <v>2.139962856861</v>
-      </c>
-      <c r="S31">
-        <v>0.004224551297653229</v>
-      </c>
-      <c r="T31">
-        <v>0.006758128115516671</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G32">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H32">
-        <v>0.461005</v>
-      </c>
-      <c r="I32">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J32">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>8.750552000000001</v>
-      </c>
-      <c r="N32">
-        <v>17.501104</v>
-      </c>
-      <c r="O32">
-        <v>0.5609966218914535</v>
-      </c>
-      <c r="P32">
-        <v>0.4734644514473085</v>
-      </c>
-      <c r="Q32">
-        <v>1.344682741586667</v>
-      </c>
-      <c r="R32">
-        <v>8.06809644952</v>
-      </c>
-      <c r="S32">
-        <v>0.02389113008396368</v>
-      </c>
-      <c r="T32">
-        <v>0.02547952142224635</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G33">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H33">
-        <v>0.461005</v>
-      </c>
-      <c r="I33">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J33">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.324405</v>
-      </c>
-      <c r="N33">
-        <v>0.9732149999999999</v>
-      </c>
-      <c r="O33">
-        <v>0.0207975575854754</v>
-      </c>
-      <c r="P33">
-        <v>0.02632877937959184</v>
-      </c>
-      <c r="Q33">
-        <v>0.04985077567499999</v>
-      </c>
-      <c r="R33">
-        <v>0.448656981075</v>
-      </c>
-      <c r="S33">
-        <v>0.0008857043595522016</v>
-      </c>
-      <c r="T33">
-        <v>0.001416885039992419</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G34">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H34">
-        <v>0.461005</v>
-      </c>
-      <c r="I34">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J34">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0.3575543333333333</v>
-      </c>
-      <c r="N34">
-        <v>1.072663</v>
-      </c>
-      <c r="O34">
-        <v>0.02292275654640424</v>
-      </c>
-      <c r="P34">
-        <v>0.02901918638291757</v>
-      </c>
-      <c r="Q34">
-        <v>0.05494477847944444</v>
-      </c>
-      <c r="R34">
-        <v>0.4945030063149999</v>
-      </c>
-      <c r="S34">
-        <v>0.0009762100824898332</v>
-      </c>
-      <c r="T34">
-        <v>0.001561669474528637</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G35">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H35">
-        <v>0.461005</v>
-      </c>
-      <c r="I35">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J35">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.0802015</v>
-      </c>
-      <c r="N35">
-        <v>2.160403</v>
-      </c>
-      <c r="O35">
-        <v>0.06925156178285448</v>
-      </c>
-      <c r="P35">
-        <v>0.0584462569504255</v>
-      </c>
-      <c r="Q35">
-        <v>0.1659927641691667</v>
-      </c>
-      <c r="R35">
-        <v>0.9959565850150001</v>
-      </c>
-      <c r="S35">
-        <v>0.002949212181516399</v>
-      </c>
-      <c r="T35">
-        <v>0.003145289263990734</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G36">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H36">
-        <v>0.461005</v>
-      </c>
-      <c r="I36">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J36">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>4.651555333333333</v>
-      </c>
-      <c r="N36">
-        <v>13.954666</v>
-      </c>
-      <c r="O36">
-        <v>0.2982105390084161</v>
-      </c>
-      <c r="P36">
-        <v>0.3775212285362344</v>
-      </c>
-      <c r="Q36">
-        <v>0.7147967554811111</v>
-      </c>
-      <c r="R36">
-        <v>6.43317079933</v>
-      </c>
-      <c r="S36">
-        <v>0.0126998746549271</v>
-      </c>
-      <c r="T36">
-        <v>0.02031633040334443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G37">
-        <v>0.1536683333333333</v>
-      </c>
-      <c r="H37">
-        <v>0.461005</v>
-      </c>
-      <c r="I37">
-        <v>0.04258694108248363</v>
-      </c>
-      <c r="J37">
-        <v>0.05381506751849974</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.4339576666666667</v>
-      </c>
-      <c r="N37">
-        <v>1.301873</v>
-      </c>
-      <c r="O37">
-        <v>0.02782096318539646</v>
-      </c>
-      <c r="P37">
-        <v>0.03522009730352221</v>
-      </c>
-      <c r="Q37">
-        <v>0.06668555137388889</v>
-      </c>
-      <c r="R37">
-        <v>0.600169962365</v>
-      </c>
-      <c r="S37">
-        <v>0.001184809720034425</v>
-      </c>
-      <c r="T37">
-        <v>0.001895371914397179</v>
+        <v>0.002027364052090851</v>
       </c>
     </row>
   </sheetData>
